--- a/parser/referParsed.xlsx
+++ b/parser/referParsed.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyLEANN\parser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12480" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="referParsed" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="referParsed (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="referParsed" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">referParsed!$A$1:$C$583</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">referParsed!$A$1:$C$583</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'referParsed (2)'!$A$1:$C$398</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="325">
   <si>
     <t>Image Segmentation</t>
   </si>
@@ -960,6 +958,62 @@
   </si>
   <si>
     <t>Weighting Features in k Nearest Neighbor Classification on Feature Projections4</t>
+  </si>
+  <si>
+    <t>A Classification Learning Algorithm Robust to Irrelevant Features</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeC4.5: Neural Ensemble Based C4.5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Comparison of Methods for Multi-class Support Vector Machines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Immune Recognition System (AIRS): An ImmuneInspired Supervised Learning Algorithm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editing Training Data for kNN Classifiers with Neural Network Ensemble</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Genetic Algorithm Approach for Semi-Supervised Clustering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A neural network classifier based on Dempster-Shafer theory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constructive Neural-Network Learning Algorithms for Pattern Classification</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genetic Programming for data classification: partitioning the search space</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handling Continuous Attributes in an Evolutionary Inductive Learner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Feature Extraction for Multilayered Perceptrons Using Supervised Principal Component Analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge discovery in medical and biological datasets using a hybrid Bayes classifier/evolutionary algorithm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1552,9 +1606,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1601,37 +1658,7 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1930,7 +1957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1938,11 +1965,2305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C190"/>
+  <sheetViews>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C190"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C33" si="0">COUNTIF(B:B,B2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C65" si="1">COUNTIF(B:B,B34)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C97" si="2">COUNTIF(B:B,B66)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:C129" si="3">COUNTIF(B:B,B98)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C161" si="4">COUNTIF(B:B,B130)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>63</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>107</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" t="s">
+        <v>108</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>108</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>63</v>
+      </c>
+      <c r="B157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ref="C162:C193" si="5">COUNTIF(B:B,B162)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B169" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>145</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>107</v>
+      </c>
+      <c r="B177" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>156</v>
+      </c>
+      <c r="B182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>107</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187" t="s">
+        <v>81</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C398">
+    <sortState ref="A2:C443">
+      <sortCondition descending="1" ref="C1:C443"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:C583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1959,7 +4280,7 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(B:B,B2)</f>
+        <f t="shared" ref="C2:C65" si="0">COUNTIF(B:B,B2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1971,7 +4292,7 @@
         <v>102</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1983,7 +4304,7 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <f>COUNTIF(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1995,7 +4316,7 @@
         <v>104</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2007,7 +4328,7 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <f>COUNTIF(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2019,7 +4340,7 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <f>COUNTIF(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2031,7 +4352,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <f>COUNTIF(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2043,7 +4364,7 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <f>COUNTIF(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2055,7 +4376,7 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2067,7 +4388,7 @@
         <v>166</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2079,7 +4400,7 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <f>COUNTIF(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2091,7 +4412,7 @@
         <v>105</v>
       </c>
       <c r="C13">
-        <f>COUNTIF(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2103,7 +4424,7 @@
         <v>59</v>
       </c>
       <c r="C14">
-        <f>COUNTIF(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2115,7 +4436,7 @@
         <v>61</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2127,7 +4448,7 @@
         <v>45</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2139,7 +4460,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2151,7 +4472,7 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <f>COUNTIF(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2163,7 +4484,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <f>COUNTIF(B:B,B19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2175,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <f>COUNTIF(B:B,B20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2187,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(B:B,B21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2199,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(B:B,B22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2211,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(B:B,B23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2223,7 +4544,7 @@
         <v>84</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(B:B,B24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2235,7 +4556,7 @@
         <v>84</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(B:B,B25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2247,7 +4568,7 @@
         <v>84</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(B:B,B26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2259,260 +4580,260 @@
         <v>84</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(B:B,B27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(B:B,B28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(B:B,B29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(B:B,B30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(B:B,B31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="C32">
-        <f>COUNTIF(B:B,B32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(B:B,B33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(B:B,B34)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(B:B,B35)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(B:B,B36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(B:B,B37)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
       </c>
       <c r="C38">
-        <f>COUNTIF(B:B,B38)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
       <c r="C39">
-        <f>COUNTIF(B:B,B39)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
       </c>
       <c r="C40">
-        <f>COUNTIF(B:B,B40)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
       <c r="C41">
-        <f>COUNTIF(B:B,B41)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <f>COUNTIF(B:B,B42)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43">
-        <f>COUNTIF(B:B,B43)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <f>COUNTIF(B:B,B44)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <f>COUNTIF(B:B,B45)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <f>COUNTIF(B:B,B46)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C47">
-        <f>COUNTIF(B:B,B47)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C48">
-        <f>COUNTIF(B:B,B48)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2520,82 +4841,82 @@
         <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C49">
-        <f>COUNTIF(B:B,B49)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
         <v>82</v>
       </c>
       <c r="C50">
-        <f>COUNTIF(B:B,B50)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <f>COUNTIF(B:B,B51)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C52">
-        <f>COUNTIF(B:B,B52)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C53">
-        <f>COUNTIF(B:B,B53)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
       </c>
       <c r="C54">
-        <f>COUNTIF(B:B,B54)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <f>COUNTIF(B:B,B55)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2607,7 +4928,7 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <f>COUNTIF(B:B,B56)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2619,7 +4940,7 @@
         <v>52</v>
       </c>
       <c r="C57">
-        <f>COUNTIF(B:B,B57)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2631,7 +4952,7 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <f>COUNTIF(B:B,B58)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2643,7 +4964,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <f>COUNTIF(B:B,B59)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2655,7 +4976,7 @@
         <v>57</v>
       </c>
       <c r="C60">
-        <f>COUNTIF(B:B,B60)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2667,7 +4988,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <f>COUNTIF(B:B,B61)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2679,67 +5000,67 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <f>COUNTIF(B:B,B62)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C63">
-        <f>COUNTIF(B:B,B63)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <f>COUNTIF(B:B,B64)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <f>COUNTIF(B:B,B65)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <f>COUNTIF(B:B,B66)</f>
+        <f t="shared" ref="C66:C129" si="1">COUNTIF(B:B,B66)</f>
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <f>COUNTIF(B:B,B67)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2748,46 +5069,46 @@
         <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <f>COUNTIF(B:B,B68)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C69">
-        <f>COUNTIF(B:B,B69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C70">
-        <f>COUNTIF(B:B,B70)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C71">
-        <f>COUNTIF(B:B,B71)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2796,250 +5117,250 @@
         <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C72">
-        <f>COUNTIF(B:B,B72)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <f>COUNTIF(B:B,B73)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <f>COUNTIF(B:B,B74)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <f>COUNTIF(B:B,B75)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <f>COUNTIF(B:B,B76)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <f>COUNTIF(B:B,B77)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C78">
-        <f>COUNTIF(B:B,B78)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <f>COUNTIF(B:B,B79)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C80">
-        <f>COUNTIF(B:B,B80)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C81">
-        <f>COUNTIF(B:B,B81)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C82">
-        <f>COUNTIF(B:B,B82)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C83">
-        <f>COUNTIF(B:B,B83)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <f>COUNTIF(B:B,B84)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <f>COUNTIF(B:B,B85)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C86">
-        <f>COUNTIF(B:B,B86)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C87">
-        <f>COUNTIF(B:B,B87)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C88">
-        <f>COUNTIF(B:B,B88)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C89">
-        <f>COUNTIF(B:B,B89)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <f>COUNTIF(B:B,B90)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C91">
-        <f>COUNTIF(B:B,B91)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C92">
-        <f>COUNTIF(B:B,B92)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3051,7 +5372,7 @@
         <v>87</v>
       </c>
       <c r="C93">
-        <f>COUNTIF(B:B,B93)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3063,7 +5384,7 @@
         <v>86</v>
       </c>
       <c r="C94">
-        <f>COUNTIF(B:B,B94)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3075,7 +5396,7 @@
         <v>75</v>
       </c>
       <c r="C95">
-        <f>COUNTIF(B:B,B95)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3087,79 +5408,79 @@
         <v>88</v>
       </c>
       <c r="C96">
-        <f>COUNTIF(B:B,B96)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C97">
-        <f>COUNTIF(B:B,B97)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C98">
-        <f>COUNTIF(B:B,B98)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C99">
-        <f>COUNTIF(B:B,B99)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C100">
-        <f>COUNTIF(B:B,B100)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C101">
-        <f>COUNTIF(B:B,B101)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <f>COUNTIF(B:B,B102)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3168,22 +5489,22 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C103">
-        <f>COUNTIF(B:B,B103)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C104">
-        <f>COUNTIF(B:B,B104)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3192,46 +5513,46 @@
         <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C105">
-        <f>COUNTIF(B:B,B105)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <f>COUNTIF(B:B,B106)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <f>COUNTIF(B:B,B107)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <f>COUNTIF(B:B,B108)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3240,10 +5561,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C109">
-        <f>COUNTIF(B:B,B109)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3252,46 +5573,46 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C110">
-        <f>COUNTIF(B:B,B110)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C111">
-        <f>COUNTIF(B:B,B111)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C112">
-        <f>COUNTIF(B:B,B112)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C113">
-        <f>COUNTIF(B:B,B113)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3300,70 +5621,70 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <f>COUNTIF(B:B,B114)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C115">
-        <f>COUNTIF(B:B,B115)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C116">
-        <f>COUNTIF(B:B,B116)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C117">
-        <f>COUNTIF(B:B,B117)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C118">
-        <f>COUNTIF(B:B,B118)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C119">
-        <f>COUNTIF(B:B,B119)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3372,46 +5693,46 @@
         <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C120">
-        <f>COUNTIF(B:B,B120)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C121">
-        <f>COUNTIF(B:B,B121)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C122">
-        <f>COUNTIF(B:B,B122)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C123">
-        <f>COUNTIF(B:B,B123)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3420,34 +5741,34 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C124">
-        <f>COUNTIF(B:B,B124)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C125">
-        <f>COUNTIF(B:B,B125)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C126">
-        <f>COUNTIF(B:B,B126)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3456,58 +5777,58 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C127">
-        <f>COUNTIF(B:B,B127)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C128">
-        <f>COUNTIF(B:B,B128)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C129">
-        <f>COUNTIF(B:B,B129)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C130">
-        <f>COUNTIF(B:B,B130)</f>
+        <f t="shared" ref="C130:C193" si="2">COUNTIF(B:B,B130)</f>
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C131">
-        <f>COUNTIF(B:B,B131)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3516,10 +5837,10 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C132">
-        <f>COUNTIF(B:B,B132)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3528,226 +5849,226 @@
         <v>107</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C133">
-        <f>COUNTIF(B:B,B133)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C134">
-        <f>COUNTIF(B:B,B134)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C135">
-        <f>COUNTIF(B:B,B135)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C136">
-        <f>COUNTIF(B:B,B136)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C137">
-        <f>COUNTIF(B:B,B137)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C138">
-        <f>COUNTIF(B:B,B138)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C139">
-        <f>COUNTIF(B:B,B139)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <f>COUNTIF(B:B,B140)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <f>COUNTIF(B:B,B141)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B142" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C142">
-        <f>COUNTIF(B:B,B142)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C143">
-        <f>COUNTIF(B:B,B143)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C144">
-        <f>COUNTIF(B:B,B144)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C145">
-        <f>COUNTIF(B:B,B145)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C146">
-        <f>COUNTIF(B:B,B146)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C147">
-        <f>COUNTIF(B:B,B147)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C148">
-        <f>COUNTIF(B:B,B148)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C149">
-        <f>COUNTIF(B:B,B149)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C150">
-        <f>COUNTIF(B:B,B150)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C151">
-        <f>COUNTIF(B:B,B151)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3756,22 +6077,22 @@
         <v>164</v>
       </c>
       <c r="B152" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C152">
-        <f>COUNTIF(B:B,B152)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B153" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <f>COUNTIF(B:B,B153)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3780,82 +6101,82 @@
         <v>63</v>
       </c>
       <c r="B154" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C154">
-        <f>COUNTIF(B:B,B154)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C155">
-        <f>COUNTIF(B:B,B155)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C156">
-        <f>COUNTIF(B:B,B156)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C157">
-        <f>COUNTIF(B:B,B157)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C158">
-        <f>COUNTIF(B:B,B158)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C159">
-        <f>COUNTIF(B:B,B159)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C160">
-        <f>COUNTIF(B:B,B160)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3864,83 +6185,83 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C161">
-        <f>COUNTIF(B:B,B161)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C162">
-        <f>COUNTIF(B:B,B162)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C163">
-        <f>COUNTIF(B:B,B163)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B164" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C164">
-        <f>COUNTIF(B:B,B164)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C165">
-        <f>COUNTIF(B:B,B165)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <f>COUNTIF(B:B,B166)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B167" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C167">
-        <f>COUNTIF(B:B,B167)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -3948,106 +6269,106 @@
         <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C168">
-        <f>COUNTIF(B:B,B168)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C169">
-        <f>COUNTIF(B:B,B169)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C170">
-        <f>COUNTIF(B:B,B170)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="B171" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C171">
-        <f>COUNTIF(B:B,B171)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B172" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C172">
-        <f>COUNTIF(B:B,B172)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B173" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C173">
-        <f>COUNTIF(B:B,B173)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C174">
-        <f>COUNTIF(B:B,B174)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C175">
-        <f>COUNTIF(B:B,B175)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C176">
-        <f>COUNTIF(B:B,B176)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4056,34 +6377,34 @@
         <v>164</v>
       </c>
       <c r="B177" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="C177">
-        <f>COUNTIF(B:B,B177)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C178">
-        <f>COUNTIF(B:B,B178)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B179" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C179">
-        <f>COUNTIF(B:B,B179)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4092,106 +6413,106 @@
         <v>63</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C180">
-        <f>COUNTIF(B:B,B180)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C181">
-        <f>COUNTIF(B:B,B181)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B182" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C182">
-        <f>COUNTIF(B:B,B182)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B183" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C183">
-        <f>COUNTIF(B:B,B183)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B184" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C184">
-        <f>COUNTIF(B:B,B184)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C185">
-        <f>COUNTIF(B:B,B185)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B186" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C186">
-        <f>COUNTIF(B:B,B186)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="C187">
-        <f>COUNTIF(B:B,B187)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="C188">
-        <f>COUNTIF(B:B,B188)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4200,22 +6521,22 @@
         <v>107</v>
       </c>
       <c r="B189" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C189">
-        <f>COUNTIF(B:B,B189)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C190">
-        <f>COUNTIF(B:B,B190)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4224,34 +6545,34 @@
         <v>107</v>
       </c>
       <c r="B191" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C191">
-        <f>COUNTIF(B:B,B191)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C192">
-        <f>COUNTIF(B:B,B192)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B193" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C193">
-        <f>COUNTIF(B:B,B193)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4260,70 +6581,70 @@
         <v>164</v>
       </c>
       <c r="B194" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="C194">
-        <f>COUNTIF(B:B,B194)</f>
+        <f t="shared" ref="C194:C257" si="3">COUNTIF(B:B,B194)</f>
         <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C195">
-        <f>COUNTIF(B:B,B195)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B196" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C196">
-        <f>COUNTIF(B:B,B196)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B197" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C197">
-        <f>COUNTIF(B:B,B197)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C198">
-        <f>COUNTIF(B:B,B198)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C199">
-        <f>COUNTIF(B:B,B199)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4332,10 +6653,10 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C200">
-        <f>COUNTIF(B:B,B200)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4347,7 +6668,7 @@
         <v>97</v>
       </c>
       <c r="C201">
-        <f>COUNTIF(B:B,B201)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4359,7 +6680,7 @@
         <v>57</v>
       </c>
       <c r="C202">
-        <f>COUNTIF(B:B,B202)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4371,7 +6692,7 @@
         <v>91</v>
       </c>
       <c r="C203">
-        <f>COUNTIF(B:B,B203)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4383,7 +6704,7 @@
         <v>94</v>
       </c>
       <c r="C204">
-        <f>COUNTIF(B:B,B204)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4395,7 +6716,7 @@
         <v>96</v>
       </c>
       <c r="C205">
-        <f>COUNTIF(B:B,B205)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4407,7 +6728,7 @@
         <v>90</v>
       </c>
       <c r="C206">
-        <f>COUNTIF(B:B,B206)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4419,7 +6740,7 @@
         <v>95</v>
       </c>
       <c r="C207">
-        <f>COUNTIF(B:B,B207)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4431,7 +6752,7 @@
         <v>93</v>
       </c>
       <c r="C208">
-        <f>COUNTIF(B:B,B208)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4443,7 +6764,7 @@
         <v>92</v>
       </c>
       <c r="C209">
-        <f>COUNTIF(B:B,B209)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4455,7 +6776,7 @@
         <v>74</v>
       </c>
       <c r="C210">
-        <f>COUNTIF(B:B,B210)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4467,7 +6788,7 @@
         <v>121</v>
       </c>
       <c r="C211">
-        <f>COUNTIF(B:B,B211)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4479,7 +6800,7 @@
         <v>119</v>
       </c>
       <c r="C212">
-        <f>COUNTIF(B:B,B212)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4491,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="C213">
-        <f>COUNTIF(B:B,B213)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4503,7 +6824,7 @@
         <v>15</v>
       </c>
       <c r="C214">
-        <f>COUNTIF(B:B,B214)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4515,7 +6836,7 @@
         <v>118</v>
       </c>
       <c r="C215">
-        <f>COUNTIF(B:B,B215)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4527,7 +6848,7 @@
         <v>99</v>
       </c>
       <c r="C216">
-        <f>COUNTIF(B:B,B216)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4539,7 +6860,7 @@
         <v>116</v>
       </c>
       <c r="C217">
-        <f>COUNTIF(B:B,B217)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4551,7 +6872,7 @@
         <v>120</v>
       </c>
       <c r="C218">
-        <f>COUNTIF(B:B,B218)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4563,7 +6884,7 @@
         <v>117</v>
       </c>
       <c r="C219">
-        <f>COUNTIF(B:B,B219)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4575,7 +6896,7 @@
         <v>31</v>
       </c>
       <c r="C220">
-        <f>COUNTIF(B:B,B220)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4587,7 +6908,7 @@
         <v>74</v>
       </c>
       <c r="C221">
-        <f>COUNTIF(B:B,B221)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4599,7 +6920,7 @@
         <v>48</v>
       </c>
       <c r="C222">
-        <f>COUNTIF(B:B,B222)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4611,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="C223">
-        <f>COUNTIF(B:B,B223)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4623,7 +6944,7 @@
         <v>90</v>
       </c>
       <c r="C224">
-        <f>COUNTIF(B:B,B224)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4635,7 +6956,7 @@
         <v>129</v>
       </c>
       <c r="C225">
-        <f>COUNTIF(B:B,B225)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4647,7 +6968,7 @@
         <v>128</v>
       </c>
       <c r="C226">
-        <f>COUNTIF(B:B,B226)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4659,7 +6980,7 @@
         <v>118</v>
       </c>
       <c r="C227">
-        <f>COUNTIF(B:B,B227)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4671,7 +6992,7 @@
         <v>127</v>
       </c>
       <c r="C228">
-        <f>COUNTIF(B:B,B228)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4683,7 +7004,7 @@
         <v>125</v>
       </c>
       <c r="C229">
-        <f>COUNTIF(B:B,B229)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4695,7 +7016,7 @@
         <v>126</v>
       </c>
       <c r="C230">
-        <f>COUNTIF(B:B,B230)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4707,7 +7028,7 @@
         <v>132</v>
       </c>
       <c r="C231">
-        <f>COUNTIF(B:B,B231)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4719,7 +7040,7 @@
         <v>131</v>
       </c>
       <c r="C232">
-        <f>COUNTIF(B:B,B232)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4731,7 +7052,7 @@
         <v>31</v>
       </c>
       <c r="C233">
-        <f>COUNTIF(B:B,B233)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4743,7 +7064,7 @@
         <v>121</v>
       </c>
       <c r="C234">
-        <f>COUNTIF(B:B,B234)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4755,164 +7076,164 @@
         <v>6</v>
       </c>
       <c r="C235">
-        <f>COUNTIF(B:B,B235)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B236" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C236">
-        <f>COUNTIF(B:B,B236)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B237" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C237">
-        <f>COUNTIF(B:B,B237)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B238" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C238">
-        <f>COUNTIF(B:B,B238)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B239" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C239">
-        <f>COUNTIF(B:B,B239)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B240" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C240">
-        <f>COUNTIF(B:B,B240)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>134</v>
       </c>
       <c r="B241" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="C241">
-        <f>COUNTIF(B:B,B241)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B242" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C242">
-        <f>COUNTIF(B:B,B242)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B243" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C243">
-        <f>COUNTIF(B:B,B243)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B244" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="C244">
-        <f>COUNTIF(B:B,B244)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B245" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="C245">
-        <f>COUNTIF(B:B,B245)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B246" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C246">
-        <f>COUNTIF(B:B,B246)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C247">
-        <f>COUNTIF(B:B,B247)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B248" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C248">
-        <f>COUNTIF(B:B,B248)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4923,7 +7244,7 @@
         <v>37</v>
       </c>
       <c r="C249">
-        <f>COUNTIF(B:B,B249)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4935,7 +7256,7 @@
         <v>140</v>
       </c>
       <c r="C250">
-        <f>COUNTIF(B:B,B250)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4947,7 +7268,7 @@
         <v>119</v>
       </c>
       <c r="C251">
-        <f>COUNTIF(B:B,B251)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4959,7 +7280,7 @@
         <v>52</v>
       </c>
       <c r="C252">
-        <f>COUNTIF(B:B,B252)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -4971,7 +7292,7 @@
         <v>22</v>
       </c>
       <c r="C253">
-        <f>COUNTIF(B:B,B253)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -4983,7 +7304,7 @@
         <v>142</v>
       </c>
       <c r="C254">
-        <f>COUNTIF(B:B,B254)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -4995,7 +7316,7 @@
         <v>103</v>
       </c>
       <c r="C255">
-        <f>COUNTIF(B:B,B255)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5007,7 +7328,7 @@
         <v>141</v>
       </c>
       <c r="C256">
-        <f>COUNTIF(B:B,B256)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5019,7 +7340,7 @@
         <v>143</v>
       </c>
       <c r="C257">
-        <f>COUNTIF(B:B,B257)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5031,7 +7352,7 @@
         <v>18</v>
       </c>
       <c r="C258">
-        <f>COUNTIF(B:B,B258)</f>
+        <f t="shared" ref="C258:C321" si="4">COUNTIF(B:B,B258)</f>
         <v>3</v>
       </c>
     </row>
@@ -5043,7 +7364,7 @@
         <v>47</v>
       </c>
       <c r="C259">
-        <f>COUNTIF(B:B,B259)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5055,7 +7376,7 @@
         <v>101</v>
       </c>
       <c r="C260">
-        <f>COUNTIF(B:B,B260)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5067,7 +7388,7 @@
         <v>32</v>
       </c>
       <c r="C261">
-        <f>COUNTIF(B:B,B261)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5079,7 +7400,7 @@
         <v>21</v>
       </c>
       <c r="C262">
-        <f>COUNTIF(B:B,B262)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5091,7 +7412,7 @@
         <v>44</v>
       </c>
       <c r="C263">
-        <f>COUNTIF(B:B,B263)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5103,7 +7424,7 @@
         <v>105</v>
       </c>
       <c r="C264">
-        <f>COUNTIF(B:B,B264)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5115,7 +7436,7 @@
         <v>61</v>
       </c>
       <c r="C265">
-        <f>COUNTIF(B:B,B265)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5127,7 +7448,7 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <f>COUNTIF(B:B,B266)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5139,7 +7460,7 @@
         <v>50</v>
       </c>
       <c r="C267">
-        <f>COUNTIF(B:B,B267)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5151,7 +7472,7 @@
         <v>45</v>
       </c>
       <c r="C268">
-        <f>COUNTIF(B:B,B268)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5163,7 +7484,7 @@
         <v>23</v>
       </c>
       <c r="C269">
-        <f>COUNTIF(B:B,B269)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5175,7 +7496,7 @@
         <v>139</v>
       </c>
       <c r="C270">
-        <f>COUNTIF(B:B,B270)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5187,7 +7508,7 @@
         <v>41</v>
       </c>
       <c r="C271">
-        <f>COUNTIF(B:B,B271)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5199,7 +7520,7 @@
         <v>6</v>
       </c>
       <c r="C272">
-        <f>COUNTIF(B:B,B272)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5208,22 +7529,22 @@
         <v>156</v>
       </c>
       <c r="B273" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C273">
-        <f>COUNTIF(B:B,B273)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B274" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="C274">
-        <f>COUNTIF(B:B,B274)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5232,106 +7553,106 @@
         <v>156</v>
       </c>
       <c r="B275" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="C275">
-        <f>COUNTIF(B:B,B275)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="C276">
-        <f>COUNTIF(B:B,B276)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="C277">
-        <f>COUNTIF(B:B,B277)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C278">
-        <f>COUNTIF(B:B,B278)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B279" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="C279">
-        <f>COUNTIF(B:B,B279)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B280" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C280">
-        <f>COUNTIF(B:B,B280)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B281" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C281">
-        <f>COUNTIF(B:B,B281)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B282" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C282">
-        <f>COUNTIF(B:B,B282)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B283" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C283">
-        <f>COUNTIF(B:B,B283)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5343,7 +7664,7 @@
         <v>136</v>
       </c>
       <c r="C284">
-        <f>COUNTIF(B:B,B284)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5355,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="C285">
-        <f>COUNTIF(B:B,B285)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5367,7 +7688,7 @@
         <v>113</v>
       </c>
       <c r="C286">
-        <f>COUNTIF(B:B,B286)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5379,7 +7700,7 @@
         <v>113</v>
       </c>
       <c r="C287">
-        <f>COUNTIF(B:B,B287)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5391,7 +7712,7 @@
         <v>135</v>
       </c>
       <c r="C288">
-        <f>COUNTIF(B:B,B288)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5403,7 +7724,7 @@
         <v>140</v>
       </c>
       <c r="C289">
-        <f>COUNTIF(B:B,B289)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5415,7 +7736,7 @@
         <v>121</v>
       </c>
       <c r="C290">
-        <f>COUNTIF(B:B,B290)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5427,7 +7748,7 @@
         <v>129</v>
       </c>
       <c r="C291">
-        <f>COUNTIF(B:B,B291)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5439,7 +7760,7 @@
         <v>66</v>
       </c>
       <c r="C292">
-        <f>COUNTIF(B:B,B292)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5451,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="C293">
-        <f>COUNTIF(B:B,B293)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5463,7 +7784,7 @@
         <v>90</v>
       </c>
       <c r="C294">
-        <f>COUNTIF(B:B,B294)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5475,7 +7796,7 @@
         <v>118</v>
       </c>
       <c r="C295">
-        <f>COUNTIF(B:B,B295)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5487,7 +7808,7 @@
         <v>116</v>
       </c>
       <c r="C296">
-        <f>COUNTIF(B:B,B296)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5499,7 +7820,7 @@
         <v>147</v>
       </c>
       <c r="C297">
-        <f>COUNTIF(B:B,B297)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5511,7 +7832,7 @@
         <v>120</v>
       </c>
       <c r="C298">
-        <f>COUNTIF(B:B,B298)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5523,7 +7844,7 @@
         <v>131</v>
       </c>
       <c r="C299">
-        <f>COUNTIF(B:B,B299)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5535,7 +7856,7 @@
         <v>127</v>
       </c>
       <c r="C300">
-        <f>COUNTIF(B:B,B300)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5547,7 +7868,7 @@
         <v>146</v>
       </c>
       <c r="C301">
-        <f>COUNTIF(B:B,B301)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5559,7 +7880,7 @@
         <v>126</v>
       </c>
       <c r="C302">
-        <f>COUNTIF(B:B,B302)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5571,7 +7892,7 @@
         <v>5</v>
       </c>
       <c r="C303">
-        <f>COUNTIF(B:B,B303)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5583,7 +7904,7 @@
         <v>111</v>
       </c>
       <c r="C304">
-        <f>COUNTIF(B:B,B304)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5595,7 +7916,7 @@
         <v>34</v>
       </c>
       <c r="C305">
-        <f>COUNTIF(B:B,B305)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5607,7 +7928,7 @@
         <v>84</v>
       </c>
       <c r="C306">
-        <f>COUNTIF(B:B,B306)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5619,7 +7940,7 @@
         <v>152</v>
       </c>
       <c r="C307">
-        <f>COUNTIF(B:B,B307)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5631,7 +7952,7 @@
         <v>121</v>
       </c>
       <c r="C308">
-        <f>COUNTIF(B:B,B308)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5643,7 +7964,7 @@
         <v>153</v>
       </c>
       <c r="C309">
-        <f>COUNTIF(B:B,B309)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5655,7 +7976,7 @@
         <v>155</v>
       </c>
       <c r="C310">
-        <f>COUNTIF(B:B,B310)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5667,7 +7988,7 @@
         <v>154</v>
       </c>
       <c r="C311">
-        <f>COUNTIF(B:B,B311)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5679,7 +8000,7 @@
         <v>94</v>
       </c>
       <c r="C312">
-        <f>COUNTIF(B:B,B312)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5691,7 +8012,7 @@
         <v>103</v>
       </c>
       <c r="C313">
-        <f>COUNTIF(B:B,B313)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5703,7 +8024,7 @@
         <v>149</v>
       </c>
       <c r="C314">
-        <f>COUNTIF(B:B,B314)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5715,7 +8036,7 @@
         <v>141</v>
       </c>
       <c r="C315">
-        <f>COUNTIF(B:B,B315)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5727,7 +8048,7 @@
         <v>146</v>
       </c>
       <c r="C316">
-        <f>COUNTIF(B:B,B316)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5739,7 +8060,7 @@
         <v>150</v>
       </c>
       <c r="C317">
-        <f>COUNTIF(B:B,B317)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5751,7 +8072,7 @@
         <v>151</v>
       </c>
       <c r="C318">
-        <f>COUNTIF(B:B,B318)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5763,7 +8084,7 @@
         <v>54</v>
       </c>
       <c r="C319">
-        <f>COUNTIF(B:B,B319)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5775,7 +8096,7 @@
         <v>147</v>
       </c>
       <c r="C320">
-        <f>COUNTIF(B:B,B320)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5787,7 +8108,7 @@
         <v>30</v>
       </c>
       <c r="C321">
-        <f>COUNTIF(B:B,B321)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5799,7 +8120,7 @@
         <v>30</v>
       </c>
       <c r="C322">
-        <f>COUNTIF(B:B,B322)</f>
+        <f t="shared" ref="C322:C385" si="5">COUNTIF(B:B,B322)</f>
         <v>2</v>
       </c>
     </row>
@@ -5811,7 +8132,7 @@
         <v>38</v>
       </c>
       <c r="C323">
-        <f>COUNTIF(B:B,B323)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5823,7 +8144,7 @@
         <v>38</v>
       </c>
       <c r="C324">
-        <f>COUNTIF(B:B,B324)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5835,7 +8156,7 @@
         <v>44</v>
       </c>
       <c r="C325">
-        <f>COUNTIF(B:B,B325)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5847,7 +8168,7 @@
         <v>162</v>
       </c>
       <c r="C326">
-        <f>COUNTIF(B:B,B326)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5859,7 +8180,7 @@
         <v>162</v>
       </c>
       <c r="C327">
-        <f>COUNTIF(B:B,B327)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5871,7 +8192,7 @@
         <v>43</v>
       </c>
       <c r="C328">
-        <f>COUNTIF(B:B,B328)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5883,7 +8204,7 @@
         <v>43</v>
       </c>
       <c r="C329">
-        <f>COUNTIF(B:B,B329)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5895,7 +8216,7 @@
         <v>125</v>
       </c>
       <c r="C330">
-        <f>COUNTIF(B:B,B330)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5907,7 +8228,7 @@
         <v>108</v>
       </c>
       <c r="C331">
-        <f>COUNTIF(B:B,B331)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5919,7 +8240,7 @@
         <v>108</v>
       </c>
       <c r="C332">
-        <f>COUNTIF(B:B,B332)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5931,7 +8252,7 @@
         <v>88</v>
       </c>
       <c r="C333">
-        <f>COUNTIF(B:B,B333)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5943,7 +8264,7 @@
         <v>12</v>
       </c>
       <c r="C334">
-        <f>COUNTIF(B:B,B334)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5955,7 +8276,7 @@
         <v>12</v>
       </c>
       <c r="C335">
-        <f>COUNTIF(B:B,B335)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5967,7 +8288,7 @@
         <v>93</v>
       </c>
       <c r="C336">
-        <f>COUNTIF(B:B,B336)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5979,7 +8300,7 @@
         <v>78</v>
       </c>
       <c r="C337">
-        <f>COUNTIF(B:B,B337)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -5991,7 +8312,7 @@
         <v>78</v>
       </c>
       <c r="C338">
-        <f>COUNTIF(B:B,B338)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6003,7 +8324,7 @@
         <v>17</v>
       </c>
       <c r="C339">
-        <f>COUNTIF(B:B,B339)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6015,7 +8336,7 @@
         <v>17</v>
       </c>
       <c r="C340">
-        <f>COUNTIF(B:B,B340)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6027,7 +8348,7 @@
         <v>112</v>
       </c>
       <c r="C341">
-        <f>COUNTIF(B:B,B341)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6039,7 +8360,7 @@
         <v>112</v>
       </c>
       <c r="C342">
-        <f>COUNTIF(B:B,B342)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6051,7 +8372,7 @@
         <v>10</v>
       </c>
       <c r="C343">
-        <f>COUNTIF(B:B,B343)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6063,7 +8384,7 @@
         <v>10</v>
       </c>
       <c r="C344">
-        <f>COUNTIF(B:B,B344)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6075,7 +8396,7 @@
         <v>41</v>
       </c>
       <c r="C345">
-        <f>COUNTIF(B:B,B345)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6087,7 +8408,7 @@
         <v>70</v>
       </c>
       <c r="C346">
-        <f>COUNTIF(B:B,B346)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6099,7 +8420,7 @@
         <v>70</v>
       </c>
       <c r="C347">
-        <f>COUNTIF(B:B,B347)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6111,7 +8432,7 @@
         <v>79</v>
       </c>
       <c r="C348">
-        <f>COUNTIF(B:B,B348)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6123,7 +8444,7 @@
         <v>79</v>
       </c>
       <c r="C349">
-        <f>COUNTIF(B:B,B349)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6135,7 +8456,7 @@
         <v>39</v>
       </c>
       <c r="C350">
-        <f>COUNTIF(B:B,B350)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6147,7 +8468,7 @@
         <v>39</v>
       </c>
       <c r="C351">
-        <f>COUNTIF(B:B,B351)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6159,7 +8480,7 @@
         <v>111</v>
       </c>
       <c r="C352">
-        <f>COUNTIF(B:B,B352)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6171,7 +8492,7 @@
         <v>48</v>
       </c>
       <c r="C353">
-        <f>COUNTIF(B:B,B353)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6183,7 +8504,7 @@
         <v>150</v>
       </c>
       <c r="C354">
-        <f>COUNTIF(B:B,B354)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6195,7 +8516,7 @@
         <v>160</v>
       </c>
       <c r="C355">
-        <f>COUNTIF(B:B,B355)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6207,7 +8528,7 @@
         <v>160</v>
       </c>
       <c r="C356">
-        <f>COUNTIF(B:B,B356)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6219,7 +8540,7 @@
         <v>50</v>
       </c>
       <c r="C357">
-        <f>COUNTIF(B:B,B357)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6231,7 +8552,7 @@
         <v>33</v>
       </c>
       <c r="C358">
-        <f>COUNTIF(B:B,B358)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6243,7 +8564,7 @@
         <v>33</v>
       </c>
       <c r="C359">
-        <f>COUNTIF(B:B,B359)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6255,7 +8576,7 @@
         <v>151</v>
       </c>
       <c r="C360">
-        <f>COUNTIF(B:B,B360)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6267,7 +8588,7 @@
         <v>54</v>
       </c>
       <c r="C361">
-        <f>COUNTIF(B:B,B361)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6279,7 +8600,7 @@
         <v>27</v>
       </c>
       <c r="C362">
-        <f>COUNTIF(B:B,B362)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6291,7 +8612,7 @@
         <v>27</v>
       </c>
       <c r="C363">
-        <f>COUNTIF(B:B,B363)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6303,7 +8624,7 @@
         <v>81</v>
       </c>
       <c r="C364">
-        <f>COUNTIF(B:B,B364)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6315,7 +8636,7 @@
         <v>81</v>
       </c>
       <c r="C365">
-        <f>COUNTIF(B:B,B365)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6327,7 +8648,7 @@
         <v>139</v>
       </c>
       <c r="C366">
-        <f>COUNTIF(B:B,B366)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6339,7 +8660,7 @@
         <v>80</v>
       </c>
       <c r="C367">
-        <f>COUNTIF(B:B,B367)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6351,7 +8672,7 @@
         <v>80</v>
       </c>
       <c r="C368">
-        <f>COUNTIF(B:B,B368)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6363,7 +8684,7 @@
         <v>58</v>
       </c>
       <c r="C369">
-        <f>COUNTIF(B:B,B369)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6375,7 +8696,7 @@
         <v>62</v>
       </c>
       <c r="C370">
-        <f>COUNTIF(B:B,B370)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -6387,7 +8708,7 @@
         <v>60</v>
       </c>
       <c r="C371">
-        <f>COUNTIF(B:B,B371)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6399,7 +8720,7 @@
         <v>57</v>
       </c>
       <c r="C372">
-        <f>COUNTIF(B:B,B372)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -6411,7 +8732,7 @@
         <v>163</v>
       </c>
       <c r="C373">
-        <f>COUNTIF(B:B,B373)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6423,7 +8744,7 @@
         <v>117</v>
       </c>
       <c r="C374">
-        <f>COUNTIF(B:B,B374)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -6435,7 +8756,7 @@
         <v>92</v>
       </c>
       <c r="C375">
-        <f>COUNTIF(B:B,B375)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -6656,7 +8977,6 @@
         <filter val="Image Segmentation"/>
         <filter val="Ionosphere"/>
         <filter val="Iris"/>
-        <filter val="Pen-Based Recognition of Handwritten Digits"/>
         <filter val="Statlog (Image Segmentation)"/>
         <filter val="Statlog (Vehicle Silhouettes)"/>
         <filter val="Wine"/>
@@ -6672,12 +8992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6704,24 +9024,24 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2">
-        <f>COUNTIF(Sheet2!$B:$B,Sheet1!B$1)</f>
-        <v>1</v>
+        <f ca="1">COUNTIF(Sheet2!$B:$B,Sheet1!B$1)</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(Sheet2!$B:$B,Sheet1!C$1)</f>
-        <v>8</v>
+        <f ca="1">COUNTIF(Sheet2!$B:$B,Sheet1!C$1)</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Sheet2!$B:$B,Sheet1!D$1)</f>
-        <v>11</v>
+        <f ca="1">COUNTIF(Sheet2!$B:$B,Sheet1!D$1)</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Sheet2!$B:$B,Sheet1!E$1)</f>
-        <v>38</v>
+        <f ca="1">COUNTIF(Sheet2!$B:$B,Sheet1!E$1)</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(Sheet2!$B:$B,Sheet1!F$1)</f>
-        <v>85</v>
+        <f ca="1">COUNTIF(Sheet2!$B:$B,Sheet1!F$1)</f>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -6752,7 +9072,7 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G26" si="0">SUM(B3:F3)</f>
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -6784,7 +9104,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J4" t="s">
@@ -6816,7 +9136,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J5" t="s">
@@ -6848,7 +9168,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J6" t="s">
@@ -6880,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J7" t="s">
@@ -6912,7 +9232,7 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <f>SUM(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J8" t="s">
@@ -6944,7 +9264,7 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <f>SUM(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="J9" t="s">
@@ -6976,7 +9296,7 @@
         <v>23</v>
       </c>
       <c r="G10">
-        <f>SUM(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="J10" t="s">
@@ -7008,7 +9328,7 @@
         <v>7</v>
       </c>
       <c r="G11">
-        <f>SUM(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -7037,7 +9357,7 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f>SUM(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -7066,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f>SUM(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -7095,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUM(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -7124,7 +9444,7 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <f>SUM(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7153,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>SUM(B16:F16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -7182,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(B17:F17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -7211,7 +9531,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <f>SUM(B18:F18)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -7240,7 +9560,7 @@
         <v>9</v>
       </c>
       <c r="G19">
-        <f>SUM(B19:F19)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -7269,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f>SUM(B20:F20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -7298,7 +9618,7 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <f>SUM(B21:F21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -7327,7 +9647,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <f>SUM(B22:F22)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -7356,7 +9676,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <f>SUM(B23:F23)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -7385,7 +9705,7 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <f>SUM(B24:F24)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -7414,7 +9734,7 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <f>SUM(B25:F25)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -7443,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <f>SUM(B26:F26)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -7463,12 +9783,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7480,1287 +9800,1287 @@
       <c r="A1" t="s">
         <v>168</v>
       </c>
-      <c r="B1">
-        <f>_xlfn.NUMBERVALUE(RIGHT(A1,1))</f>
-        <v>4</v>
+      <c r="B1" t="e">
+        <f ca="1">_xlfn.NUMBERVALUE(RIGHT(A1,1))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">_xlfn.NUMBERVALUE(RIGHT(A2,1))</f>
-        <v>5</v>
+      <c r="B2" t="e">
+        <f t="shared" ref="B2:B65" ca="1" si="0">_xlfn.NUMBERVALUE(RIGHT(A2,1))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>170</v>
       </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>173</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>174</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>175</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>177</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B11" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>179</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="B12" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>180</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B13" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>181</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B14" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>183</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>184</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>185</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>186</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="B19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B20" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>188</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B21" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>189</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>190</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B23" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>191</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B24" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>192</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B25" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>193</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B26" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>194</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>195</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B28" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>196</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B29" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>197</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="B30" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>198</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B31" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>199</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B32" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>200</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B33" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>201</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B34" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>202</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="B35" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>203</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B36" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>204</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B37" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>205</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B38" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>206</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B39" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>207</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="B40" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>208</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B41" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B42" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>210</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B43" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>211</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>212</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="B45" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>213</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B46" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B47" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>215</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B48" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>216</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B49" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>217</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="B50" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>218</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B51" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>219</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B52" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>220</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B53" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>221</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B54" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>222</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B55" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>223</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B56" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>224</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B57" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>225</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="B58" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>226</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B59" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>227</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B60" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>228</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B61" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>229</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B62" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>230</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B63" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>231</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B64" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>232</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B65" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>233</v>
       </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B129" si="1">_xlfn.NUMBERVALUE(RIGHT(A66,1))</f>
-        <v>4</v>
+      <c r="B66" t="e">
+        <f t="shared" ref="B66:B129" ca="1" si="1">_xlfn.NUMBERVALUE(RIGHT(A66,1))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B67" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>235</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B68" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>236</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B69" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>237</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B70" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>238</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B71" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>239</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B72" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>240</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B73" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>241</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B74" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>242</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B75" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>243</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B76" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>244</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B77" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>245</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B78" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>246</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B79" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>247</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B80" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>248</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B81" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>249</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="B82" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>250</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B83" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>251</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B84" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>252</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B85" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>253</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B86" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>254</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B87" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>255</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B88" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>256</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B89" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>257</v>
       </c>
-      <c r="B90">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="B90" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>258</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B91" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>259</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B92" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>260</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B93" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>261</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B94" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>262</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B95" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>263</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B96" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>264</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B97" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>265</v>
       </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B98" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>266</v>
       </c>
-      <c r="B99">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B99" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>267</v>
       </c>
-      <c r="B100">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B100" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>268</v>
       </c>
-      <c r="B101">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B101" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>269</v>
       </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B102" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>270</v>
       </c>
-      <c r="B103">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B103" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>271</v>
       </c>
-      <c r="B104">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B104" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>272</v>
       </c>
-      <c r="B105">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B105" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>273</v>
       </c>
-      <c r="B106">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B106" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>274</v>
       </c>
-      <c r="B107">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B107" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>275</v>
       </c>
-      <c r="B108">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B108" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>276</v>
       </c>
-      <c r="B109">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B109" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>277</v>
       </c>
-      <c r="B110">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B110" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>278</v>
       </c>
-      <c r="B111">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="B111" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>279</v>
       </c>
-      <c r="B112">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B112" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>280</v>
       </c>
-      <c r="B113">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B113" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>281</v>
       </c>
-      <c r="B114">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B114" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>282</v>
       </c>
-      <c r="B115">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B115" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>283</v>
       </c>
-      <c r="B116">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B116" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>284</v>
       </c>
-      <c r="B117">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B117" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>285</v>
       </c>
-      <c r="B118">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B118" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>286</v>
       </c>
-      <c r="B119">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B119" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>287</v>
       </c>
-      <c r="B120">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B120" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>288</v>
       </c>
-      <c r="B121">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="B121" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>289</v>
       </c>
-      <c r="B122">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B122" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>290</v>
       </c>
-      <c r="B123">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B123" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>291</v>
       </c>
-      <c r="B124">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="B124" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>292</v>
       </c>
-      <c r="B125">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B125" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>293</v>
       </c>
-      <c r="B126">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B126" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>294</v>
       </c>
-      <c r="B127">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="B127" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>295</v>
       </c>
-      <c r="B128">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B128" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>296</v>
       </c>
-      <c r="B129">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="B129" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>297</v>
       </c>
-      <c r="B130">
-        <f t="shared" ref="B130:B143" si="2">_xlfn.NUMBERVALUE(RIGHT(A130,1))</f>
-        <v>3</v>
+      <c r="B130" t="e">
+        <f t="shared" ref="B130:B143" ca="1" si="2">_xlfn.NUMBERVALUE(RIGHT(A130,1))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>298</v>
       </c>
-      <c r="B131">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="B131" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>299</v>
       </c>
-      <c r="B132">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="B132" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>300</v>
       </c>
-      <c r="B133">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="B133" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>301</v>
       </c>
-      <c r="B134">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="B134" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>302</v>
       </c>
-      <c r="B135">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="B135" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>303</v>
       </c>
-      <c r="B136">
-        <f t="shared" si="2"/>
-        <v>5</v>
+      <c r="B136" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>304</v>
       </c>
-      <c r="B137">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="B137" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>305</v>
       </c>
-      <c r="B138">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="B138" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>306</v>
       </c>
-      <c r="B139">
-        <f t="shared" si="2"/>
-        <v>6</v>
+      <c r="B139" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>307</v>
       </c>
-      <c r="B140">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="B140" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>308</v>
       </c>
-      <c r="B141">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="B141" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>309</v>
       </c>
-      <c r="B142">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="B142" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>310</v>
       </c>
-      <c r="B143">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="B143" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -8768,4 +11088,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="82.375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>